--- a/m.xlsx
+++ b/m.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB788D4-EDA5-41A3-96A1-E3491340752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54961AD5-778C-4992-BB4C-05363D97151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>抽代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>2.1, 2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,27 +386,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="6" width="13.375" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -415,8 +422,11 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45614</v>
       </c>
@@ -430,7 +440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45619</v>
       </c>
@@ -438,12 +448,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45620</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45635</v>
       </c>
@@ -451,7 +461,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45636</v>
       </c>
@@ -459,7 +469,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45641</v>
       </c>
@@ -467,7 +477,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45696</v>
       </c>

--- a/m.xlsx
+++ b/m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54961AD5-778C-4992-BB4C-05363D97151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE39B72-79A7-48BA-A386-8D32802645EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2770" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1570" yWindow="2780" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>抽代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>复变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛函</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crypto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -398,7 +406,7 @@
     <col min="4" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +416,14 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -426,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45614</v>
       </c>
@@ -440,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45619</v>
       </c>
@@ -448,12 +462,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45620</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45635</v>
       </c>
@@ -461,7 +475,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45636</v>
       </c>
@@ -469,7 +483,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45641</v>
       </c>
@@ -477,11 +491,19 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45696</v>
       </c>
       <c r="B9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B10">
         <v>3.1</v>
       </c>
     </row>

--- a/m.xlsx
+++ b/m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE39B72-79A7-48BA-A386-8D32802645EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B35CB-8E86-4975-AC9C-068137D2F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1570" yWindow="2780" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3200" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -507,6 +507,14 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B11">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/m.xlsx
+++ b/m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12606\Desktop\daily_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B35CB-8E86-4975-AC9C-068137D2F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620D079-1BA3-482B-94EE-0B095E0426F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3200" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3170" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -515,6 +515,22 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B13">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
